--- a/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
+++ b/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="160">
   <si>
     <t>DT_SITUACAO</t>
   </si>
@@ -497,14 +497,6 @@
     <t>Patricia</t>
   </si>
   <si>
-    <t>1 - Modificar a quantidade faturada
-Filtro: Referencia Fiscal (F20003759) Seq. Entrega (2)
-2 - Modificar valor despesa e valor de desconto
-Filtro: Referencia Fiscal (F20003751) Seq. Entrega (1)
-3 - Modificar o valor de juros
-Filtro: Referencia Fiscal (F20003639) Seq. Entrega (2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 - Modificar Canal Venda Garantia Estendida
 Filtro: Nr. Ordem (V20006627) 
 2 - Modificar Valor Garantia
@@ -562,10 +554,6 @@
 Filtro: Num. Pedido (V20006367) Num. Entrega Dev (4218653002)</t>
   </si>
   <si>
-    <t>Modificar o campo DT_ULTIMA_ATUALIZACAO PARA PEGAR DA TDREC940
-O processo consiste em alterações somente quando o processo de faturamento já estiver concluído em 100%, e adevolução esta com status em aberto</t>
-  </si>
-  <si>
     <t>1 - Alterar o status do Pedido final 100000029 (Criado para Aprovado)
 2 - Alterar a data da emissão do pedido para o pedido de compra "100000021" 
 3 - Alterar a origem do pedido para o pedido de compra "C10000003"</t>
@@ -584,6 +572,37 @@
   </si>
   <si>
     <t>1 - Inserir nova cotação de Compra para a Moeda USD</t>
+  </si>
+  <si>
+    <t>Modificar o campo DT_ULTIMA_ATUALIZACAO PARA PEGAR DA TDREC940
+O processo consiste em alterações somente quando o processo de faturamento já estiver concluído em 100%, e a devolução esta com status em aberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Modificar a quantidade faturada
+Filtro: Referencia Fiscal (F20003759) Seq. Entrega (2)
+2 - Modificar valor despesa e valor de desconto
+Filtro: Referencia Fiscal (F20003751) Seq. Entrega (1)
+3 - Modificar o valor de juros
+Filtro: Referencia Fiscal (F20003639) Seq. Entrega (2)
+</t>
+  </si>
+  <si>
+    <t>São lidas apenas as notas com status de Impresso ou lançado, cujo Tipo de documento fiscal seja Remessa op. Triangular e Fatura op. Triangular e que o Status Nfe seja Nenhum, Transmitida ou Processada.
+Notas Impressas ou Lançadas não permitem alterações. Precisamos criar uma nova nota para identificar o comportamento da data de atualização</t>
+  </si>
+  <si>
+    <t>Verificar com Fábio se é possível alterar algum item de garantia ou se precisamos cancelar e abrir uma nova</t>
+  </si>
+  <si>
+    <t>Como podemos alterar a situação de uma lista de casamento.
+(A-Aguardando, V-Vale e L-Liberado)</t>
+  </si>
+  <si>
+    <t>Os registros são lidos dos status: Aprovado, Aprovado com problemas, estornado, não aplicável, aguardando WMS e pronto para enviar WMS. No entanto, esses status não permitem mais alterações.
+Somente testaremos com a criação de um novo recebimento físico.</t>
+  </si>
+  <si>
+    <t>O rascunho vem do Fornecedor, portanto, se alterarmos quantidade e valores dos pedidos que estão aguardando processamento os mesmos ficarão diferentes do rascunho. Ver com o Fábio o que pode ser alterado neste caso.....</t>
   </si>
 </sst>
 </file>
@@ -599,12 +618,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -619,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -634,6 +659,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1613,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1623,8 +1651,8 @@
     <col min="2" max="2" width="100.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="66.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="5" max="5" width="66.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1641,10 +1669,10 @@
       <c r="D1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G1" t="s">
@@ -1675,6 +1703,7 @@
       <c r="E3" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="F3"/>
       <c r="G3" s="2" t="s">
         <v>139</v>
       </c>
@@ -1692,6 +1721,7 @@
       <c r="E4" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="F4"/>
       <c r="G4" s="2" t="s">
         <v>139</v>
       </c>
@@ -1709,6 +1739,7 @@
       <c r="E5" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F5"/>
       <c r="G5" s="2" t="s">
         <v>139</v>
       </c>
@@ -1726,6 +1757,7 @@
       <c r="E6" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F6"/>
       <c r="G6" s="2" t="s">
         <v>139</v>
       </c>
@@ -1743,6 +1775,7 @@
       <c r="E7" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F7"/>
       <c r="G7" s="2" t="s">
         <v>139</v>
       </c>
@@ -1760,6 +1793,7 @@
       <c r="E8" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="F8"/>
       <c r="G8" s="2" t="s">
         <v>139</v>
       </c>
@@ -1777,6 +1811,7 @@
       <c r="E9" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F9"/>
       <c r="G9" s="2" t="s">
         <v>140</v>
       </c>
@@ -1794,6 +1829,7 @@
       <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="F10"/>
       <c r="G10" s="2" t="s">
         <v>140</v>
       </c>
@@ -1811,6 +1847,7 @@
       <c r="E11" t="s">
         <v>119</v>
       </c>
+      <c r="F11"/>
       <c r="G11" s="2" t="s">
         <v>140</v>
       </c>
@@ -1828,6 +1865,7 @@
       <c r="E12" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="F12"/>
       <c r="G12" s="2" t="s">
         <v>140</v>
       </c>
@@ -1845,6 +1883,7 @@
       <c r="E13" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="F13"/>
       <c r="G13" s="2" t="s">
         <v>140</v>
       </c>
@@ -1862,11 +1901,12 @@
       <c r="E14" t="s">
         <v>119</v>
       </c>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="122.25" customHeight="1">
+    <row r="15" spans="1:7" ht="150">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1877,11 +1917,11 @@
       <c r="D15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>148</v>
+      <c r="E15" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="35.25" customHeight="1">
@@ -1894,14 +1934,14 @@
       <c r="D16" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E16" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="120">
+      <c r="F16" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="240">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1911,8 +1951,11 @@
       <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>141</v>
+      <c r="E17" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="135">
@@ -1925,8 +1968,11 @@
       <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>142</v>
+      <c r="E18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="75">
@@ -1939,11 +1985,14 @@
       <c r="D19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="120">
+      <c r="E19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="180">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1956,11 +2005,14 @@
       <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="120">
+      <c r="E20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="180">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1973,11 +2025,14 @@
       <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="120">
+      <c r="E21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="150">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1987,8 +2042,11 @@
       <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>146</v>
+      <c r="E22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="120">
@@ -2001,8 +2059,8 @@
       <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>147</v>
+      <c r="E23" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="60">
@@ -2015,7 +2073,7 @@
       <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2029,7 +2087,7 @@
       <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2043,7 +2101,7 @@
       <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2057,7 +2115,7 @@
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2074,11 +2132,11 @@
       <c r="D28" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="60">
@@ -2094,11 +2152,11 @@
       <c r="D29" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>151</v>
+      <c r="E29" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="75">
@@ -2111,11 +2169,11 @@
       <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" t="s">
-        <v>152</v>
+      <c r="E30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2128,7 +2186,7 @@
       <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2142,7 +2200,7 @@
       <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2156,7 +2214,7 @@
       <c r="D33" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2170,7 +2228,7 @@
       <c r="D34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2195,7 +2253,7 @@
       <c r="D36" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2209,7 +2267,7 @@
       <c r="D37" t="s">
         <v>96</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2223,7 +2281,7 @@
       <c r="D38" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2237,7 +2295,7 @@
       <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2251,7 +2309,7 @@
       <c r="D40" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="5" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2265,7 +2323,7 @@
       <c r="D41" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2279,7 +2337,7 @@
       <c r="D42" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2293,7 +2351,7 @@
       <c r="D43" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2307,7 +2365,7 @@
       <c r="D44" t="s">
         <v>106</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="5" t="s">
         <v>136</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
+++ b/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="170">
   <si>
     <t>DT_SITUACAO</t>
   </si>
@@ -419,25 +419,14 @@
     <t>NA - Dados</t>
   </si>
   <si>
-    <t>1 - Alterar a Qtd Faturada para a Referência "F20000553" no item "900000017"</t>
-  </si>
-  <si>
     <t>1 - Alterar a data da chegada do pedido para a ordem "000000005", Nr Entrega "4218835901"</t>
   </si>
   <si>
     <t>1 - Alterar o status da Entrega "5001262701", ordem de Venda "V20000825"</t>
-  </si>
-  <si>
-    <t>1 - Alterar a data da emissão da nota fiscal para a Referência Fiscal "100000011"
-2 - Alterar o Status da Fatura para a Referência Fiscal "100000010"</t>
   </si>
   <si>
     <t>1 - Alterar o  Status da NF-e para a referência fiscal "100000005"
 2 - Alterar o motivo do cancelamento da referência fiscal "F20000013"</t>
-  </si>
-  <si>
-    <t>1 - Alterar algumas datas de Orçamento para o Departamento 56
-2 - Alterar alguns valores orçados para o Departamento 30</t>
   </si>
   <si>
     <t>1 - Alterar a quantidade do item "129441" para a Ordem "V20000381"
@@ -603,6 +592,48 @@
   </si>
   <si>
     <t>O rascunho vem do Fornecedor, portanto, se alterarmos quantidade e valores dos pedidos que estão aguardando processamento os mesmos ficarão diferentes do rascunho. Ver com o Fábio o que pode ser alterado neste caso.....</t>
+  </si>
+  <si>
+    <t>Rosana</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>Rosana e Marcus</t>
+  </si>
+  <si>
+    <t>Rosana e Marcia</t>
+  </si>
+  <si>
+    <t>1 - Alterar a Quantidade da Referência Fiscal "F20000224" e mudar o status da mesma de Composto para Impresso 
+2 - Alterar Quantidade e inserir um valor de Desconto na Referência fiscal "F20000690". Manter o status da mesma como composto</t>
+  </si>
+  <si>
+    <t>Só conseguimos alterar o que é Venda sem Pedido.
+Para a primeira situação, as datas foram devidamente atualizadas.
+Na segunda opção, os valores sofreram alterações, porém as datas não foram alteradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus </t>
+  </si>
+  <si>
+    <t>A tela do LN é toda travada. Permite apenas a leitura dos dados. Perguntei ao Fábio se seria possível alguma alteração e o mesmo respondeu que não, pois é uma tabela de integração que é atualizada pelo processamnto do NF</t>
+  </si>
+  <si>
+    <t>31/07/2014 (OK)</t>
+  </si>
+  <si>
+    <t>A alteração foi realizada (de R$ 1.394.971,78 para R$ 1.400.000,00. Os valores foram rateados corretamente e a data de atualização ficou como "2014-07-31 15:53:27.000"</t>
+  </si>
+  <si>
+    <t>1 - Alterar o valor orçado de "Sales Mês PF" (Clas 1), do Departamento "Beleza &amp; Saúde" (102) no mês de Junho/2014</t>
+  </si>
+  <si>
+    <t>Tentar pegar um faturamento lançado e cancelar o mesmo</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
   </si>
 </sst>
 </file>
@@ -644,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -663,6 +694,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,17 +742,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:I44" totalsRowShown="0">
+  <autoFilter ref="A1:I44">
     <filterColumn colId="5"/>
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
   </autoFilter>
   <sortState ref="A2:D51">
     <sortCondition ref="A1:A51"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="9">
     <tableColumn id="1" name="Tabelas Movimento"/>
     <tableColumn id="2" name="Atributos Data" dataDxfId="0"/>
     <tableColumn id="3" name="QT_REGISTROS_MES"/>
@@ -720,6 +762,8 @@
     <tableColumn id="5" name="Cenário Teste"/>
     <tableColumn id="6" name="DT_HORA_TESTE"/>
     <tableColumn id="7" name="Responsável"/>
+    <tableColumn id="8" name="Comentários"/>
+    <tableColumn id="9" name="Colunas1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1639,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1652,11 +1696,13 @@
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="66.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1672,14 +1718,20 @@
       <c r="E1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>137</v>
+      <c r="F1" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1689,8 +1741,10 @@
       <c r="D2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="120" hidden="1">
+      <c r="E2" s="5"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="120" hidden="1">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1705,10 +1759,10 @@
       </c>
       <c r="F3"/>
       <c r="G3" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="120" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="120" hidden="1">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1723,10 +1777,10 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="120" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120" hidden="1">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1741,10 +1795,10 @@
       </c>
       <c r="F5"/>
       <c r="G5" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" hidden="1">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1759,10 +1813,10 @@
       </c>
       <c r="F6"/>
       <c r="G6" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" hidden="1">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1777,10 +1831,10 @@
       </c>
       <c r="F7"/>
       <c r="G7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" hidden="1">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1795,10 +1849,10 @@
       </c>
       <c r="F8"/>
       <c r="G8" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="75" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" hidden="1">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -1813,10 +1867,10 @@
       </c>
       <c r="F9"/>
       <c r="G9" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" hidden="1">
       <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
@@ -1831,10 +1885,10 @@
       </c>
       <c r="F10"/>
       <c r="G10" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1849,10 +1903,10 @@
       </c>
       <c r="F11"/>
       <c r="G11" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="165" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="165" hidden="1">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -1867,10 +1921,10 @@
       </c>
       <c r="F12"/>
       <c r="G12" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="120" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="120" hidden="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -1885,10 +1939,10 @@
       </c>
       <c r="F13"/>
       <c r="G13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1903,10 +1957,10 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="150">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="135">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1918,13 +1972,19 @@
         <v>97</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="35.25" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="F15" s="8">
+        <v>41849</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="35.25" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
@@ -1935,13 +1995,17 @@
         <v>98</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="240">
+        <v>149</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="210">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1952,13 +2016,22 @@
         <v>93</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="135">
+        <v>151</v>
+      </c>
+      <c r="F17" s="9">
+        <v>41850</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="135">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1969,13 +2042,19 @@
         <v>99</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75">
+        <v>138</v>
+      </c>
+      <c r="F18" s="9">
+        <v>41850</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1986,13 +2065,19 @@
         <v>101</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="180">
+        <v>139</v>
+      </c>
+      <c r="F19" s="9">
+        <v>41850</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="165">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -2006,13 +2091,19 @@
         <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="180">
+        <v>140</v>
+      </c>
+      <c r="F20" s="9">
+        <v>41850</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="165">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -2026,13 +2117,19 @@
         <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="150">
+        <v>141</v>
+      </c>
+      <c r="F21" s="9">
+        <v>41850</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="120">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2043,13 +2140,19 @@
         <v>95</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="120">
+        <v>142</v>
+      </c>
+      <c r="F22" s="9">
+        <v>41850</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="120">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -2060,10 +2163,19 @@
         <v>95</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="60">
+        <v>143</v>
+      </c>
+      <c r="F23" s="9">
+        <v>41850</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="120">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2074,10 +2186,19 @@
         <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>161</v>
+      </c>
+      <c r="F24" s="9">
+        <v>41851</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="120">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2087,11 +2208,20 @@
       <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45">
+      <c r="E25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="9">
+        <v>41851</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="120">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -2102,10 +2232,19 @@
         <v>103</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="45">
+        <v>122</v>
+      </c>
+      <c r="F26" s="9">
+        <v>41851</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="90">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -2116,10 +2255,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="90">
+        <v>167</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="90">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2133,13 +2281,16 @@
         <v>94</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="60">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -2153,13 +2304,16 @@
         <v>94</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="75">
+        <v>146</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -2170,13 +2324,16 @@
         <v>103</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -2186,11 +2343,12 @@
       <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45">
+      <c r="E31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="45">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2201,10 +2359,11 @@
         <v>103</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45">
+        <v>123</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="45">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -2215,10 +2374,11 @@
         <v>103</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45">
+        <v>124</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="45">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -2229,10 +2389,11 @@
         <v>103</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -2242,8 +2403,10 @@
       <c r="D35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="45">
+      <c r="E35" s="5"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2254,10 +2417,11 @@
         <v>105</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -2267,11 +2431,12 @@
       <c r="D37" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="90">
+      <c r="E37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="90">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -2282,10 +2447,11 @@
         <v>106</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45">
+        <v>127</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="45">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -2296,10 +2462,11 @@
         <v>106</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45">
+        <v>128</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="45">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -2310,10 +2477,11 @@
         <v>106</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45">
+        <v>129</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="45">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -2324,10 +2492,11 @@
         <v>106</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45">
+        <v>130</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="45">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -2338,10 +2507,11 @@
         <v>106</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60">
+        <v>131</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="60">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -2352,10 +2522,11 @@
         <v>106</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45">
+        <v>132</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="45">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2366,8 +2537,9 @@
         <v>106</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>136</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
+++ b/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="175">
   <si>
     <t>DT_SITUACAO</t>
   </si>
@@ -437,14 +437,6 @@
 2 - Alterar o motivo de reprovação da ordem "V20007549"</t>
   </si>
   <si>
-    <t>1 - Alterar o Status ABC do item "13422390"
-2 - Alterar o peso unitário do item "13423544"</t>
-  </si>
-  <si>
-    <t>1 - Alterar a Condição de pagamento do Parceiro "000000387"
-2 - Alterar o Valor Mínimo Pedido para o Parceiro "000000122"</t>
-  </si>
-  <si>
     <t>1 - Alterar o Tipo de Entrega para a expedição "0000000136"
 2 - Alterar a data prometida para a expedição "010203"
 3 - Alterar o Valor Total do Frete do Cliente para a expedição "0000000207"</t>
@@ -624,16 +616,42 @@
     <t>31/07/2014 (OK)</t>
   </si>
   <si>
-    <t>A alteração foi realizada (de R$ 1.394.971,78 para R$ 1.400.000,00. Os valores foram rateados corretamente e a data de atualização ficou como "2014-07-31 15:53:27.000"</t>
-  </si>
-  <si>
-    <t>1 - Alterar o valor orçado de "Sales Mês PF" (Clas 1), do Departamento "Beleza &amp; Saúde" (102) no mês de Junho/2014</t>
-  </si>
-  <si>
     <t>Tentar pegar um faturamento lançado e cancelar o mesmo</t>
   </si>
   <si>
     <t>Colunas1</t>
+  </si>
+  <si>
+    <t>1 - Alterar o valor orçado de "Sales Mês PF" (Clas 1), do Departamento "Beleza &amp; Saúde" (102) no mês de Junho/2014
+2 - Criar o período de 2015 e verificar se a data ficará igual ao dia de criação do mesmo</t>
+  </si>
+  <si>
+    <t>A alteração foi realizada (de R$ 1.394.971,78 para R$ 1.400.000,00. Os valores foram rateados corretamente e a data de atualização ficou como "2014-07-31 15:53:27.000". Inseri o ano de 2015 (apenas 2 registros) e a data foi criada corretamente.</t>
+  </si>
+  <si>
+    <t>conferir se a data da atualização foi corrigida</t>
+  </si>
+  <si>
+    <t>1 - Alterar algum campo do item "13422390" que não seja extraído pela view para sabermos se a data de atualização será alterada
+2 - Alterar o peso unitário do item "13423544"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Alterei a descrição completa do item 13422390 e a data foi alterada e lida corretamente pela view
+2) Alterei o peso unitário e bruto do item "13423544" e a data também foi alterada e lida corretamente. </t>
+  </si>
+  <si>
+    <t>não tem data de atualização</t>
+  </si>
+  <si>
+    <t>Verificar se é necessário a inclusão da data de atualização</t>
+  </si>
+  <si>
+    <t>1 - Alterar a Condição de pagamento do Parceiro "000000387"
+2 - Alterar no Parceiro "000000001" a opção para Autofaturamento</t>
+  </si>
+  <si>
+    <t>1) A alteração da condição de pagamento refletiu na alteração da data de atualização
+2) Não consegui mudar, pois ao salvar o sistema pede para informar um valor para o campo Método de Autofaturamento, entretanto, a tabela dele está sem informação. Provavelmente a data de atualização não será alterada neste caso pois a mesma está sendo lida da tabela "znpur008", enquanto que o Autofaturamento é lido da tabela "tdipu010".</t>
   </si>
 </sst>
 </file>
@@ -675,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -703,6 +721,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,20 +1716,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="66.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1719,16 +1750,16 @@
         <v>108</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1742,7 +1773,7 @@
         <v>96</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="120" hidden="1">
       <c r="A3" s="2" t="s">
@@ -1759,7 +1790,7 @@
       </c>
       <c r="F3"/>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="120" hidden="1">
@@ -1777,7 +1808,7 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="120" hidden="1">
@@ -1795,7 +1826,7 @@
       </c>
       <c r="F5"/>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" hidden="1">
@@ -1813,7 +1844,7 @@
       </c>
       <c r="F6"/>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75" hidden="1">
@@ -1831,7 +1862,7 @@
       </c>
       <c r="F7"/>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" hidden="1">
@@ -1849,7 +1880,7 @@
       </c>
       <c r="F8"/>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" hidden="1">
@@ -1867,7 +1898,7 @@
       </c>
       <c r="F9"/>
       <c r="G9" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75" hidden="1">
@@ -1885,7 +1916,7 @@
       </c>
       <c r="F10"/>
       <c r="G10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1">
@@ -1903,7 +1934,7 @@
       </c>
       <c r="F11"/>
       <c r="G11" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="165" hidden="1">
@@ -1921,7 +1952,7 @@
       </c>
       <c r="F12"/>
       <c r="G12" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="120" hidden="1">
@@ -1939,7 +1970,7 @@
       </c>
       <c r="F13"/>
       <c r="G13" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1">
@@ -1957,10 +1988,10 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="135">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="150">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1972,16 +2003,19 @@
         <v>97</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F15" s="8">
         <v>41849</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>159</v>
+      <c r="G15" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="35.25" customHeight="1">
@@ -1995,13 +2029,13 @@
         <v>98</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2016,19 +2050,19 @@
         <v>93</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F17" s="9">
         <v>41850</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>160</v>
+      <c r="G17" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="135">
@@ -2042,16 +2076,16 @@
         <v>99</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="9">
         <v>41850</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>153</v>
+      <c r="G18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75">
@@ -2065,16 +2099,16 @@
         <v>101</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F19" s="9">
         <v>41850</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>160</v>
+      <c r="G19" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="165">
@@ -2091,16 +2125,16 @@
         <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F20" s="9">
         <v>41850</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>160</v>
+      <c r="G20" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="165">
@@ -2117,16 +2151,16 @@
         <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F21" s="9">
         <v>41850</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>160</v>
+      <c r="G21" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="120">
@@ -2140,16 +2174,16 @@
         <v>95</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F22" s="9">
         <v>41850</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>160</v>
+      <c r="G22" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="120">
@@ -2163,16 +2197,16 @@
         <v>95</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F23" s="9">
         <v>41850</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>160</v>
+      <c r="G23" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="120">
@@ -2186,16 +2220,16 @@
         <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F24" s="9">
         <v>41851</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>157</v>
+      <c r="G24" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="120">
@@ -2209,16 +2243,16 @@
         <v>95</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F25" s="9">
         <v>41851</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>157</v>
+      <c r="G25" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="120">
@@ -2237,14 +2271,14 @@
       <c r="F26" s="9">
         <v>41851</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>157</v>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="90">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="120">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -2255,16 +2289,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="90">
@@ -2281,13 +2315,13 @@
         <v>94</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>163</v>
+      <c r="G28" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60">
@@ -2304,13 +2338,13 @@
         <v>94</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="75">
@@ -2324,13 +2358,13 @@
         <v>103</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30">
@@ -2346,7 +2380,7 @@
       <c r="E31" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="45">
       <c r="A32" s="2" t="s">
@@ -2361,9 +2395,9 @@
       <c r="E32" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="45">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" ht="45">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -2376,9 +2410,9 @@
       <c r="E33" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="45">
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" ht="105">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -2389,12 +2423,20 @@
         <v>103</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="9">
+        <v>41852</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45">
+      <c r="A35" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2403,10 +2445,17 @@
       <c r="D35" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="45">
+      <c r="E35" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="210">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2417,11 +2466,19 @@
         <v>105</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="30">
+        <v>173</v>
+      </c>
+      <c r="F36" s="9">
+        <v>41852</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -2434,9 +2491,9 @@
       <c r="E37" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="90">
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" ht="90">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -2447,11 +2504,11 @@
         <v>106</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="45">
+        <v>125</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -2462,11 +2519,11 @@
         <v>106</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="45">
+        <v>126</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -2477,11 +2534,11 @@
         <v>106</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="45">
+        <v>127</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -2492,11 +2549,11 @@
         <v>106</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="45">
+        <v>128</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" ht="45">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -2507,11 +2564,11 @@
         <v>106</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="60">
+        <v>129</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" ht="60">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -2522,11 +2579,11 @@
         <v>106</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="45">
+        <v>130</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2537,9 +2594,9 @@
         <v>106</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="G44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
+++ b/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="179">
   <si>
     <t>DT_SITUACAO</t>
   </si>
@@ -652,6 +652,18 @@
   <si>
     <t>1) A alteração da condição de pagamento refletiu na alteração da data de atualização
 2) Não consegui mudar, pois ao salvar o sistema pede para informar um valor para o campo Método de Autofaturamento, entretanto, a tabela dele está sem informação. Provavelmente a data de atualização não será alterada neste caso pois a mesma está sendo lida da tabela "znpur008", enquanto que o Autofaturamento é lido da tabela "tdipu010".</t>
+  </si>
+  <si>
+    <t>A tela "Display Tracking - Pedidos" é toda engessada e não permite alterações. Precisamos ver como o Fábio como alterar</t>
+  </si>
+  <si>
+    <t>Pedimos para inserir a DT_ATUALIZACAO (#258), baseada no documento fiscal</t>
+  </si>
+  <si>
+    <t>Não consegui identificar uma tela que pudesse realizar a alteração de algum dado. Precisaremos verificar com o Fabio</t>
+  </si>
+  <si>
+    <t>Extrai dados do WMS.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC5B3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,9 +749,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,6 +768,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC5B3"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -774,14 +799,6 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:I44" totalsRowShown="0">
-  <autoFilter ref="A1:I44">
-    <filterColumn colId="5"/>
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-  </autoFilter>
   <sortState ref="A2:D51">
     <sortCondition ref="A1:A51"/>
   </sortState>
@@ -1716,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:H37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1774,8 +1791,9 @@
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="120" hidden="1">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="120">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1793,7 +1811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="120" hidden="1">
+    <row r="4" spans="1:9" ht="135">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1811,7 +1829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="120" hidden="1">
+    <row r="5" spans="1:9" ht="120">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1829,7 +1847,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" hidden="1">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" hidden="1">
+    <row r="7" spans="1:9" ht="105">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" hidden="1">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1883,7 +1901,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" hidden="1">
+    <row r="9" spans="1:9" ht="105">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -1901,7 +1919,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" hidden="1">
+    <row r="10" spans="1:9" ht="75">
       <c r="A10" s="2" t="s">
         <v>83</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="165" hidden="1">
+    <row r="12" spans="1:9" ht="165">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="120" hidden="1">
+    <row r="13" spans="1:9" ht="120">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -1973,7 +1991,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2011,7 +2029,7 @@
       <c r="G15" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>148</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -2037,9 +2055,9 @@
       <c r="G16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="210">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="165">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2058,7 +2076,7 @@
       <c r="G17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="5" t="s">
         <v>150</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -2107,11 +2125,11 @@
       <c r="G19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="165">
+    <row r="20" spans="1:9" ht="135">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -2133,11 +2151,11 @@
       <c r="G20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="165">
+    <row r="21" spans="1:9" ht="135">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -2159,7 +2177,7 @@
       <c r="G21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2182,7 +2200,7 @@
       <c r="G22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2209,7 +2227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="120">
+    <row r="24" spans="1:9" ht="105">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2232,7 +2250,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="120">
+    <row r="25" spans="1:9" ht="105">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="120">
+    <row r="26" spans="1:9" ht="105">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -2278,7 +2296,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="120">
+    <row r="27" spans="1:9" ht="105">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="90">
+    <row r="28" spans="1:9" ht="120">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2341,9 @@
       <c r="G28" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="60">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="75">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -2346,8 +2365,9 @@
       <c r="G29" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="75">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="105">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -2366,6 +2386,7 @@
       <c r="G30" s="7" t="s">
         <v>161</v>
       </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="30">
       <c r="A31" s="2" t="s">
@@ -2381,8 +2402,9 @@
         <v>120</v>
       </c>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" ht="45">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="60">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2396,8 +2418,9 @@
         <v>123</v>
       </c>
       <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" ht="45">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="60">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -2411,6 +2434,7 @@
         <v>124</v>
       </c>
       <c r="G33" s="7"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="105">
       <c r="A34" s="2" t="s">
@@ -2450,8 +2474,8 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="11"/>
+      <c r="I35" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2478,7 +2502,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="60">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -2491,9 +2515,17 @@
       <c r="E37" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="90">
+      <c r="F37" s="9">
+        <v>41856</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="105">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -2506,9 +2538,17 @@
       <c r="E38" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" ht="45">
+      <c r="F38" s="9">
+        <v>41855</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="75">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -2521,9 +2561,18 @@
       <c r="E39" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" ht="45">
+      <c r="F39" s="9">
+        <v>41855</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -2536,9 +2585,17 @@
       <c r="E40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" ht="45">
+      <c r="F40" s="9">
+        <v>41855</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -2551,9 +2608,17 @@
       <c r="E41" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" ht="45">
+      <c r="F41" s="9">
+        <v>41855</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75">
       <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
@@ -2566,9 +2631,17 @@
       <c r="E42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" ht="60">
+      <c r="F42" s="9">
+        <v>41855</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="75">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -2581,10 +2654,18 @@
       <c r="E43" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="45">
-      <c r="A44" t="s">
+      <c r="F43" s="9">
+        <v>41855</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75">
+      <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2596,7 +2677,15 @@
       <c r="E44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="F44" s="9">
+        <v>41855</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
+++ b/Documentação/Planilhas/Mapeamento_Atualizacao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="6975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="6975" tabRatio="199" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="181">
   <si>
     <t>DT_SITUACAO</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Francisco</t>
   </si>
   <si>
-    <t>Patricia</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 - Modificar Canal Venda Garantia Estendida
 Filtro: Nr. Ordem (V20006627) 
 2 - Modificar Valor Garantia
@@ -664,6 +661,15 @@
   </si>
   <si>
     <t>Extrai dados do WMS.</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Avaliar se é necessário DATA_ATUALIZACAO</t>
+  </si>
+  <si>
+    <t>Avaliar se é possivel realizar alteração no registro de cotação existente</t>
   </si>
 </sst>
 </file>
@@ -799,6 +805,49 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:I44" totalsRowShown="0">
+  <autoFilter ref="A1:I44">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="stg_cap_conciliacao_cap_car"/>
+        <filter val="stg_car_remessa"/>
+        <filter val="stg_car_remessa_cobranca_eletronica"/>
+        <filter val="stg_car_retorno_cobranca_eletronica"/>
+        <filter val="stg_car_titulo"/>
+        <filter val="stg_car_titulo_mvmto"/>
+        <filter val="stg_car_titulo_remessa"/>
+        <filter val="stg_dev_devolucao"/>
+        <filter val="stg_fat_cotacao"/>
+        <filter val="stg_fat_faturamento"/>
+        <filter val="stg_gar_estendida"/>
+        <filter val="stg_lis_situacao"/>
+        <filter val="stg_nfr_cab"/>
+        <filter val="stg_nfr_det"/>
+        <filter val="stg_nfr_rascunho_cab"/>
+        <filter val="stg_nfr_rascunho_det"/>
+        <filter val="stg_nfv_cab"/>
+        <filter val="stg_nfv_det"/>
+        <filter val="stg_nfv_eletronica"/>
+        <filter val="stg_orc_interno"/>
+        <filter val="stg_pec_cab"/>
+        <filter val="stg_pec_det"/>
+        <filter val="stg_pev_cab"/>
+        <filter val="stg_pev_cliente"/>
+        <filter val="stg_pev_det"/>
+        <filter val="stg_pev_pagamento"/>
+        <filter val="stg_sku"/>
+        <filter val="stg_sku_cmv"/>
+        <filter val="stg_sku_condicao_pagamento"/>
+        <filter val="stg_trk_status_pedido"/>
+        <filter val="stg_trp_analitico"/>
+        <filter val="stg_trp_transporte"/>
+        <filter val="stg_wms_eventos_tracking"/>
+        <filter val="stg_wms_pedido_cab"/>
+        <filter val="stg_wms_pedido_det"/>
+        <filter val="stg_wms_tracking_pedido"/>
+        <filter val="stg_wms_tracking_pedido_hist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:D51">
     <sortCondition ref="A1:A51"/>
   </sortState>
@@ -1733,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1773,10 +1822,10 @@
         <v>133</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1791,9 +1840,11 @@
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="120">
+      <c r="H2" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="120" hidden="1">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -1811,7 +1862,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="135">
+    <row r="4" spans="1:9" ht="135" hidden="1">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1829,7 +1880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="120">
+    <row r="5" spans="1:9" ht="120" hidden="1">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -1847,7 +1898,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45">
+    <row r="6" spans="1:9" ht="45" hidden="1">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1865,7 +1916,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="105">
+    <row r="7" spans="1:9" ht="105" hidden="1">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1883,7 +1934,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75">
+    <row r="8" spans="1:9" ht="75" hidden="1">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1916,7 +1967,7 @@
       </c>
       <c r="F9"/>
       <c r="G9" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75">
@@ -1934,7 +1985,7 @@
       </c>
       <c r="F10"/>
       <c r="G10" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1952,7 +2003,7 @@
       </c>
       <c r="F11"/>
       <c r="G11" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="165">
@@ -1970,7 +2021,7 @@
       </c>
       <c r="F12"/>
       <c r="G12" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="120">
@@ -1988,7 +2039,7 @@
       </c>
       <c r="F13"/>
       <c r="G13" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2005,8 +2056,8 @@
         <v>119</v>
       </c>
       <c r="F14"/>
-      <c r="G14" t="s">
-        <v>135</v>
+      <c r="G14" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="150">
@@ -2021,19 +2072,19 @@
         <v>97</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="8">
         <v>41849</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="35.25" customHeight="1">
@@ -2047,15 +2098,17 @@
         <v>98</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>156</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="165">
       <c r="A17" s="2" t="s">
@@ -2068,19 +2121,19 @@
         <v>93</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="9">
         <v>41850</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="135">
@@ -2094,16 +2147,19 @@
         <v>99</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="9">
         <v>41850</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75">
@@ -2117,16 +2173,19 @@
         <v>101</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="9">
         <v>41850</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="135">
@@ -2143,16 +2202,19 @@
         <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" s="9">
         <v>41850</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="135">
@@ -2169,16 +2231,19 @@
         <v>95</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="9">
         <v>41850</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="120">
@@ -2192,16 +2257,19 @@
         <v>95</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="9">
         <v>41850</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="120">
@@ -2215,16 +2283,19 @@
         <v>95</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="9">
         <v>41850</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="105">
@@ -2238,16 +2309,16 @@
         <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" s="9">
         <v>41851</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105">
@@ -2261,16 +2332,16 @@
         <v>95</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" s="9">
         <v>41851</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105">
@@ -2290,10 +2361,10 @@
         <v>41851</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105">
@@ -2307,16 +2378,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="120">
@@ -2333,13 +2404,13 @@
         <v>94</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -2357,13 +2428,13 @@
         <v>94</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -2378,13 +2449,13 @@
         <v>103</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -2447,16 +2518,16 @@
         <v>103</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" s="9">
         <v>41852</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45">
@@ -2470,13 +2541,13 @@
         <v>91</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="11"/>
       <c r="I35" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="210">
@@ -2490,16 +2561,16 @@
         <v>105</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="9">
         <v>41852</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60">
@@ -2519,10 +2590,10 @@
         <v>41856</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="105">
@@ -2542,10 +2613,10 @@
         <v>41855</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="75">
@@ -2565,11 +2636,11 @@
         <v>41855</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
@@ -2589,10 +2660,10 @@
         <v>41855</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="75">
@@ -2612,10 +2683,10 @@
         <v>41855</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75">
@@ -2635,10 +2706,10 @@
         <v>41855</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="75">
@@ -2658,10 +2729,10 @@
         <v>41855</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="75">
@@ -2681,10 +2752,10 @@
         <v>41855</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
